--- a/Temp/givn - Features list.xlsx
+++ b/Temp/givn - Features list.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="630" yWindow="615" windowWidth="27495" windowHeight="15780"/>
+    <workbookView xWindow="630" yWindow="615" windowWidth="14730" windowHeight="7515"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="255">
   <si>
     <t>ID</t>
   </si>
@@ -777,6 +777,9 @@
   </si>
   <si>
     <t>x</t>
+  </si>
+  <si>
+    <t>???</t>
   </si>
 </sst>
 </file>
@@ -799,7 +802,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -824,6 +827,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -844,7 +853,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -872,7 +881,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1177,8 +1191,8 @@
   <dimension ref="A1:AB1024"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H37" sqref="H37"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2041,179 +2055,188 @@
       <c r="F32" s="10" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="9"/>
-      <c r="B33" s="9" t="s">
+      <c r="H32" s="11" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="12"/>
+      <c r="B33" s="12" t="s">
         <v>192</v>
       </c>
-      <c r="C33" s="9" t="s">
+      <c r="C33" s="12" t="s">
         <v>193</v>
       </c>
-      <c r="D33" s="9" t="s">
+      <c r="D33" s="12" t="s">
         <v>194</v>
       </c>
-      <c r="E33" s="10" t="s">
+      <c r="E33" s="13" t="s">
         <v>195</v>
       </c>
-      <c r="F33" s="10" t="s">
+      <c r="F33" s="13" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="12" t="s">
+      <c r="I33" s="14" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" s="17" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="15" t="s">
         <v>197</v>
       </c>
-      <c r="B34" s="12" t="s">
+      <c r="B34" s="15" t="s">
         <v>198</v>
       </c>
-      <c r="C34" s="12" t="s">
+      <c r="C34" s="15" t="s">
         <v>199</v>
       </c>
-      <c r="D34" s="12" t="s">
+      <c r="D34" s="15" t="s">
         <v>200</v>
       </c>
-      <c r="E34" s="13" t="s">
+      <c r="E34" s="16" t="s">
         <v>201</v>
       </c>
-      <c r="F34" s="13" t="s">
+      <c r="F34" s="16" t="s">
         <v>202</v>
       </c>
-      <c r="H34" s="15" t="s">
+      <c r="H34" s="18" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="35" spans="1:8" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="12" t="s">
+    <row r="35" spans="1:9" s="17" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="15" t="s">
         <v>203</v>
       </c>
-      <c r="B35" s="12" t="s">
+      <c r="B35" s="15" t="s">
         <v>204</v>
       </c>
-      <c r="C35" s="12" t="s">
+      <c r="C35" s="15" t="s">
         <v>205</v>
       </c>
-      <c r="D35" s="12" t="s">
+      <c r="D35" s="15" t="s">
         <v>206</v>
       </c>
-      <c r="E35" s="13" t="s">
+      <c r="E35" s="16" t="s">
         <v>207</v>
       </c>
-      <c r="F35" s="13" t="s">
+      <c r="F35" s="16" t="s">
         <v>208</v>
       </c>
-      <c r="H35" s="15" t="s">
+      <c r="H35" s="18" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="36" spans="1:8" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="12" t="s">
+    <row r="36" spans="1:9" s="17" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="15" t="s">
         <v>209</v>
       </c>
-      <c r="B36" s="12" t="s">
+      <c r="B36" s="15" t="s">
         <v>210</v>
       </c>
-      <c r="C36" s="12" t="s">
+      <c r="C36" s="15" t="s">
         <v>211</v>
       </c>
-      <c r="D36" s="12" t="s">
+      <c r="D36" s="15" t="s">
         <v>212</v>
       </c>
-      <c r="E36" s="13" t="s">
+      <c r="E36" s="16" t="s">
         <v>213</v>
       </c>
-      <c r="F36" s="13" t="s">
+      <c r="F36" s="16" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="37" spans="1:8" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="12" t="s">
+    <row r="37" spans="1:9" s="17" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="15" t="s">
         <v>215</v>
       </c>
-      <c r="B37" s="12" t="s">
+      <c r="B37" s="15" t="s">
         <v>216</v>
       </c>
-      <c r="C37" s="12" t="s">
+      <c r="C37" s="15" t="s">
         <v>217</v>
       </c>
-      <c r="D37" s="12" t="s">
+      <c r="D37" s="15" t="s">
         <v>218</v>
       </c>
-      <c r="E37" s="13" t="s">
+      <c r="E37" s="16" t="s">
         <v>219</v>
       </c>
-      <c r="F37" s="13" t="s">
+      <c r="F37" s="16" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="12"/>
-      <c r="B38" s="12" t="s">
+      <c r="H37" s="17" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" s="17" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="15"/>
+      <c r="B38" s="15" t="s">
         <v>221</v>
       </c>
-      <c r="C38" s="12" t="s">
+      <c r="C38" s="15" t="s">
         <v>222</v>
       </c>
-      <c r="D38" s="12" t="s">
+      <c r="D38" s="15" t="s">
         <v>223</v>
       </c>
-      <c r="E38" s="13" t="s">
+      <c r="E38" s="16" t="s">
         <v>224</v>
       </c>
-      <c r="F38" s="13" t="s">
+      <c r="F38" s="16" t="s">
         <v>225</v>
       </c>
-      <c r="H38" s="15" t="s">
+      <c r="H38" s="18" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="39" spans="1:8" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="12" t="s">
+    <row r="39" spans="1:9" s="17" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="15" t="s">
         <v>226</v>
       </c>
-      <c r="B39" s="12" t="s">
+      <c r="B39" s="15" t="s">
         <v>227</v>
       </c>
-      <c r="C39" s="12" t="s">
+      <c r="C39" s="15" t="s">
         <v>228</v>
       </c>
-      <c r="D39" s="12" t="s">
+      <c r="D39" s="15" t="s">
         <v>229</v>
       </c>
-      <c r="E39" s="13" t="s">
+      <c r="E39" s="16" t="s">
         <v>230</v>
       </c>
-      <c r="F39" s="13" t="s">
+      <c r="F39" s="16" t="s">
         <v>231</v>
       </c>
-      <c r="H39" s="15" t="s">
+      <c r="H39" s="18" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="40" spans="1:8" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="12" t="s">
+    <row r="40" spans="1:9" s="17" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="B40" s="12" t="s">
+      <c r="B40" s="15" t="s">
         <v>233</v>
       </c>
-      <c r="C40" s="12" t="s">
+      <c r="C40" s="15" t="s">
         <v>234</v>
       </c>
-      <c r="D40" s="12" t="s">
+      <c r="D40" s="15" t="s">
         <v>235</v>
       </c>
-      <c r="E40" s="13" t="s">
+      <c r="E40" s="16" t="s">
         <v>236</v>
       </c>
-      <c r="F40" s="13" t="s">
+      <c r="F40" s="16" t="s">
         <v>237</v>
       </c>
-      <c r="H40" s="15" t="s">
+      <c r="H40" s="18" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="41" spans="1:8" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="9" t="s">
         <v>238</v>
       </c>
@@ -2236,7 +2259,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="42" spans="1:8" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="9" t="s">
         <v>245</v>
       </c>
@@ -2259,27 +2282,27 @@
         <v>251</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
     </row>
-    <row r="44" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
     </row>
-    <row r="45" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
     </row>
-    <row r="46" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
     </row>
-    <row r="47" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
     </row>
-    <row r="48" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
     </row>

--- a/Temp/givn - Features list.xlsx
+++ b/Temp/givn - Features list.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="255">
   <si>
     <t>ID</t>
   </si>
@@ -802,7 +802,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -833,6 +833,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -853,7 +859,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -887,6 +893,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1191,8 +1203,8 @@
   <dimension ref="A1:AB1024"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H38" sqref="H38"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1200,7 +1212,8 @@
     <col min="1" max="1" width="6.5703125" customWidth="1"/>
     <col min="3" max="3" width="21.85546875" customWidth="1"/>
     <col min="4" max="4" width="71.85546875" customWidth="1"/>
-    <col min="5" max="5" width="0" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" customWidth="1"/>
+    <col min="6" max="6" width="9" customWidth="1"/>
     <col min="7" max="7" width="29.140625" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="12.85546875" customWidth="1"/>
   </cols>
@@ -1248,6 +1261,9 @@
         <v>11</v>
       </c>
       <c r="F2" s="4"/>
+      <c r="H2" t="s">
+        <v>253</v>
+      </c>
     </row>
     <row r="3" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
@@ -1268,6 +1284,9 @@
       <c r="F3" s="4" t="s">
         <v>17</v>
       </c>
+      <c r="H3" t="s">
+        <v>253</v>
+      </c>
     </row>
     <row r="4" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
@@ -1290,24 +1309,27 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:28" s="21" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="20" t="s">
         <v>29</v>
+      </c>
+      <c r="H5" s="22" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="6" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">

--- a/Temp/givn - Features list.xlsx
+++ b/Temp/givn - Features list.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="255">
   <si>
     <t>ID</t>
   </si>
@@ -802,7 +802,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -833,12 +833,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -859,7 +853,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -893,12 +887,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1203,8 +1198,8 @@
   <dimension ref="A1:AB1024"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M7" sqref="M7"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1309,27 +1304,27 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:28" s="21" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="19" t="s">
+    <row r="5" spans="1:28" s="22" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="D5" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="20" t="s">
+      <c r="E5" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="20" t="s">
+      <c r="F5" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="H5" s="22" t="s">
-        <v>254</v>
+      <c r="H5" s="23" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="6" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1371,6 +1366,9 @@
       <c r="F7" s="4" t="s">
         <v>41</v>
       </c>
+      <c r="H7" s="19" t="s">
+        <v>253</v>
+      </c>
     </row>
     <row r="8" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
@@ -1391,6 +1389,9 @@
       <c r="F8" s="4" t="s">
         <v>47</v>
       </c>
+      <c r="H8" s="19" t="s">
+        <v>253</v>
+      </c>
     </row>
     <row r="9" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
@@ -1410,6 +1411,9 @@
       </c>
       <c r="F9" s="4" t="s">
         <v>53</v>
+      </c>
+      <c r="H9" s="19" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="10" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
